--- a/public/assets/tempfiles/checkers.xlsx
+++ b/public/assets/tempfiles/checkers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">instId</t>
   </si>
@@ -43,19 +43,16 @@
     <t xml:space="preserve">subjectList</t>
   </si>
   <si>
-    <t xml:space="preserve">GPK</t>
-  </si>
-  <si>
     <t xml:space="preserve">ABC</t>
   </si>
   <si>
-    <t xml:space="preserve">pawan.khade@gmail.com</t>
+    <t xml:space="preserve">pawan.khade@gmail.com11</t>
   </si>
   <si>
     <t xml:space="preserve">Both</t>
   </si>
   <si>
-    <t xml:space="preserve">CEF506,MEF403,EEF404</t>
+    <t xml:space="preserve">Sub_01,Both_01</t>
   </si>
 </sst>
 </file>
@@ -158,7 +155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,6 +170,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -255,12 +256,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.55"/>
   </cols>
@@ -289,26 +290,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2" t="n">
+        <v>531</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="n">
+        <v>7020957764</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>9764465052</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>12345678</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/tempfiles/checkers.xlsx
+++ b/public/assets/tempfiles/checkers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">instId</t>
   </si>
@@ -34,25 +34,16 @@
     <t xml:space="preserve">email</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">subjectList</t>
+    <t xml:space="preserve">GPK</t>
   </si>
   <si>
     <t xml:space="preserve">ABC</t>
   </si>
   <si>
     <t xml:space="preserve">pawan.khade@gmail.com11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_01,Both_01</t>
   </si>
 </sst>
 </file>
@@ -155,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,10 +161,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -253,17 +240,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,39 +267,27 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>531</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>7020957764</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>12345678</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="pawan.khade@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="pawan.khade@gmail.com11"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
